--- a/data/trans_orig/P36B14-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P36B14-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>160552</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>139645</v>
+        <v>140657</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>183194</v>
+        <v>182471</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.377810415499542</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3286106056354512</v>
+        <v>0.3309925218970156</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4310909252126961</v>
+        <v>0.4293878821439595</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>108</v>
@@ -762,19 +762,19 @@
         <v>117552</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>100790</v>
+        <v>99113</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>137519</v>
+        <v>136005</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3399314487229486</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2914605256294666</v>
+        <v>0.2866100846621178</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3976720741333123</v>
+        <v>0.3932914225211357</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>252</v>
@@ -783,19 +783,19 @@
         <v>278105</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>250201</v>
+        <v>249768</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>307586</v>
+        <v>306122</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3608156896686134</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3246129700406257</v>
+        <v>0.3240511235596003</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.399065375985147</v>
+        <v>0.3971659809849032</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>86367</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>69800</v>
+        <v>69063</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>104393</v>
+        <v>104572</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2032371513131158</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1642530113567955</v>
+        <v>0.162519248285705</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2456563790288914</v>
+        <v>0.2460787998385654</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>70</v>
@@ -833,19 +833,19 @@
         <v>73678</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>59501</v>
+        <v>58301</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>90105</v>
+        <v>91072</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2130600030625818</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1720624120855758</v>
+        <v>0.1685918020039127</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2605623111881585</v>
+        <v>0.2633568040223667</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>148</v>
@@ -854,19 +854,19 @@
         <v>160045</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>137936</v>
+        <v>136902</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>183380</v>
+        <v>184168</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2076442586490843</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1789594543211636</v>
+        <v>0.1776181607033574</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2379182440805976</v>
+        <v>0.2389407553262281</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>68030</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>54065</v>
+        <v>52705</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>85561</v>
+        <v>83963</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1600882936929365</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1272263138753109</v>
+        <v>0.1240237831700547</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2013404685934332</v>
+        <v>0.1975798393658958</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>62</v>
@@ -904,19 +904,19 @@
         <v>64563</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>51061</v>
+        <v>51282</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>81503</v>
+        <v>80211</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1866989851927069</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1476572016371382</v>
+        <v>0.1482952811080532</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2356860493035791</v>
+        <v>0.2319502907684891</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>126</v>
@@ -925,19 +925,19 @@
         <v>132593</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>112070</v>
+        <v>113448</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>155768</v>
+        <v>156578</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1720274104296019</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1454001863872637</v>
+        <v>0.1471889142266925</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.202094282125738</v>
+        <v>0.2031452692711797</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>69703</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>55529</v>
+        <v>55838</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>87163</v>
+        <v>86811</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1640240622770223</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1306701954627885</v>
+        <v>0.1313977731435272</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2051103165079948</v>
+        <v>0.2042836036618365</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>53</v>
@@ -975,19 +975,19 @@
         <v>52801</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>40474</v>
+        <v>40495</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>68062</v>
+        <v>66856</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.152687479051982</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1170394655726907</v>
+        <v>0.1171005860403639</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.196817414833115</v>
+        <v>0.1933296916992124</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>120</v>
@@ -996,19 +996,19 @@
         <v>122504</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>103317</v>
+        <v>99833</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>146232</v>
+        <v>142007</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1589378062314082</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1340440225210285</v>
+        <v>0.1295238879792487</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.189722679635924</v>
+        <v>0.18424091828568</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>40303</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>30007</v>
+        <v>30315</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>54436</v>
+        <v>54449</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0948400772173833</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07061203610083817</v>
+        <v>0.07133684544882049</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1280979418908854</v>
+        <v>0.1281279535242543</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>38</v>
@@ -1046,19 +1046,19 @@
         <v>37217</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>26268</v>
+        <v>27498</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>49382</v>
+        <v>50290</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1076220839697808</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07595916716836472</v>
+        <v>0.07951606471632339</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1428012676197916</v>
+        <v>0.1454275264231244</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>77</v>
@@ -1067,19 +1067,19 @@
         <v>77520</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>62881</v>
+        <v>62078</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>94139</v>
+        <v>94989</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1005748350212922</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08158209769937645</v>
+        <v>0.08054046725075005</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1221370879238423</v>
+        <v>0.123239879233426</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>135750</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>117390</v>
+        <v>117074</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>155509</v>
+        <v>154508</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3617590590818572</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.312832944397772</v>
+        <v>0.3119897025083591</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4144153926829321</v>
+        <v>0.4117483690980761</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>107</v>
@@ -1192,19 +1192,19 @@
         <v>116651</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>99366</v>
+        <v>99533</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>135275</v>
+        <v>135752</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3142872392859087</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2677162824975605</v>
+        <v>0.2681660024116699</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3644636877526301</v>
+        <v>0.3657494917274442</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>231</v>
@@ -1213,19 +1213,19 @@
         <v>252401</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>224374</v>
+        <v>225604</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>282353</v>
+        <v>279730</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.338153154736199</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3006044305119206</v>
+        <v>0.3022511071608146</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3782804775361002</v>
+        <v>0.3747671498120572</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>57543</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>44341</v>
+        <v>44006</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>74065</v>
+        <v>73063</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1533468723384069</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1181635422541316</v>
+        <v>0.11727129178056</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1973752633413421</v>
+        <v>0.1947049533061633</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>70</v>
@@ -1263,19 +1263,19 @@
         <v>77504</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>61139</v>
+        <v>61486</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>94695</v>
+        <v>93601</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2088156904426586</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1647236054888883</v>
+        <v>0.1656578598244234</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2551327988239512</v>
+        <v>0.2521830713908681</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>124</v>
@@ -1284,19 +1284,19 @@
         <v>135048</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>114466</v>
+        <v>114888</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>157203</v>
+        <v>159669</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.180929375388931</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1533545830806407</v>
+        <v>0.153920021446536</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2106120531307905</v>
+        <v>0.2139160924889109</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>69167</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>54721</v>
+        <v>55526</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>86434</v>
+        <v>85135</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1843233590065296</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1458262565141361</v>
+        <v>0.1479712766606373</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2303387661296241</v>
+        <v>0.2268765154188201</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>55</v>
@@ -1334,19 +1334,19 @@
         <v>56862</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>44734</v>
+        <v>43815</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>71099</v>
+        <v>71280</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1532000458131899</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.120525631479082</v>
+        <v>0.1180480219429206</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1915571728240993</v>
+        <v>0.1920452232252998</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>122</v>
@@ -1355,19 +1355,19 @@
         <v>126029</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>104903</v>
+        <v>106694</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>146190</v>
+        <v>147226</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1688469362083321</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1405435892410891</v>
+        <v>0.1429425442913191</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1958572698272905</v>
+        <v>0.1972447555484823</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>67080</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>53445</v>
+        <v>53015</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>83815</v>
+        <v>83443</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1787621807208848</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.142425518672384</v>
+        <v>0.1412792405472963</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.22335847651941</v>
+        <v>0.2223680070048365</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>67</v>
@@ -1405,19 +1405,19 @@
         <v>69061</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>57027</v>
+        <v>53056</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>87277</v>
+        <v>85097</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1860687788454163</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1536438251989955</v>
+        <v>0.1429469029927637</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2351462575907031</v>
+        <v>0.2292734791327888</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>130</v>
@@ -1426,19 +1426,19 @@
         <v>136142</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>116110</v>
+        <v>115825</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>160136</v>
+        <v>158687</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1823954700525606</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.155558225527382</v>
+        <v>0.1551762774290264</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2145418384104505</v>
+        <v>0.2126005620901459</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>45709</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>34515</v>
+        <v>34268</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>59891</v>
+        <v>60486</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1218085288523216</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09197781619642026</v>
+        <v>0.09132086069793445</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1596043334188462</v>
+        <v>0.161189438895177</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>52</v>
@@ -1476,19 +1476,19 @@
         <v>51082</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>39895</v>
+        <v>40184</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>65946</v>
+        <v>65117</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1376282456128265</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.107486795151628</v>
+        <v>0.1082647688984969</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1776737042924236</v>
+        <v>0.1754401300444567</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>96</v>
@@ -1497,19 +1497,19 @@
         <v>96791</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>78717</v>
+        <v>81477</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>116572</v>
+        <v>115360</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1296750636139773</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1054606956792465</v>
+        <v>0.1091589933136278</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1561769056681113</v>
+        <v>0.1545527235288828</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>170724</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>149947</v>
+        <v>150348</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>194047</v>
+        <v>195302</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3312805218572805</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2909631755754746</v>
+        <v>0.2917412762301598</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3765358333897546</v>
+        <v>0.3789721656287735</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>52</v>
@@ -1622,19 +1622,19 @@
         <v>61225</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>48474</v>
+        <v>48815</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>74584</v>
+        <v>75144</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.368552457087216</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2917944620533656</v>
+        <v>0.2938510864416197</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4489703381361818</v>
+        <v>0.4523403520864862</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>216</v>
@@ -1643,19 +1643,19 @@
         <v>231949</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>206819</v>
+        <v>208017</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>258640</v>
+        <v>262014</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.340366345914475</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3034895032470779</v>
+        <v>0.3052479898019115</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3795325470915009</v>
+        <v>0.3844834997484352</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>78854</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>64092</v>
+        <v>63144</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>96616</v>
+        <v>95351</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1530109435460986</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1243673774810223</v>
+        <v>0.1225265154398561</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1874775268042524</v>
+        <v>0.1850236206385112</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>29</v>
@@ -1693,19 +1693,19 @@
         <v>30398</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>21650</v>
+        <v>21466</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>42558</v>
+        <v>41773</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1829853833144988</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1303273028538417</v>
+        <v>0.1292159579492975</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2561826909189689</v>
+        <v>0.2514602771641732</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>104</v>
@@ -1714,19 +1714,19 @@
         <v>109252</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>90279</v>
+        <v>92105</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>128863</v>
+        <v>130140</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1603178484403184</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1324764322712454</v>
+        <v>0.1351564738123048</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.189095922536465</v>
+        <v>0.1909698027074488</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>92556</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>76952</v>
+        <v>76782</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>112332</v>
+        <v>111491</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1795990668540435</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1493215727321018</v>
+        <v>0.1489901863960858</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.217973994159041</v>
+        <v>0.2163408800584423</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>18</v>
@@ -1764,19 +1764,19 @@
         <v>17793</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>11437</v>
+        <v>10921</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>27331</v>
+        <v>28055</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1071092691689728</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.06884555373544766</v>
+        <v>0.06573991441026074</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1645226643980162</v>
+        <v>0.1688835391273398</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>109</v>
@@ -1785,19 +1785,19 @@
         <v>110349</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>92135</v>
+        <v>92511</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>129321</v>
+        <v>130609</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1619281425072124</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1352005129387534</v>
+        <v>0.1357516991528313</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1897681918705721</v>
+        <v>0.1916575258870189</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>100225</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>82854</v>
+        <v>82452</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>118801</v>
+        <v>122670</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.194480894710748</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1607724549084683</v>
+        <v>0.1599923947705034</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2305271588677125</v>
+        <v>0.238032982023911</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>33</v>
@@ -1835,19 +1835,19 @@
         <v>34265</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>25934</v>
+        <v>25304</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>46545</v>
+        <v>45821</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.206262510094951</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.156114129222536</v>
+        <v>0.1523220594029408</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2801831761805095</v>
+        <v>0.2758280689133735</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>129</v>
@@ -1856,19 +1856,19 @@
         <v>134490</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>113810</v>
+        <v>113727</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>156397</v>
+        <v>155399</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1973529131297012</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.167007278422111</v>
+        <v>0.1668847909834237</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.229500120693536</v>
+        <v>0.2280356647156615</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>72988</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>58645</v>
+        <v>57139</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>91506</v>
+        <v>88303</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1416285730318294</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1137963690719839</v>
+        <v>0.1108741809623714</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1775612283981647</v>
+        <v>0.1713460951364113</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>21</v>
@@ -1906,19 +1906,19 @@
         <v>22442</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>14402</v>
+        <v>14719</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>32913</v>
+        <v>32897</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1350903803343614</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08669525201051893</v>
+        <v>0.08860337953961718</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.198126234775679</v>
+        <v>0.1980309176928635</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>91</v>
@@ -1927,19 +1927,19 @@
         <v>95429</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>76275</v>
+        <v>77258</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>113161</v>
+        <v>114571</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.140034750008293</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1119273765423459</v>
+        <v>0.1133699838214349</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1660548120259963</v>
+        <v>0.1681230369103315</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>364317</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>329534</v>
+        <v>334862</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>395440</v>
+        <v>397544</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3179749314309093</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2876166123121626</v>
+        <v>0.2922664874590785</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3451386953305192</v>
+        <v>0.3469747978177115</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>243</v>
@@ -2052,19 +2052,19 @@
         <v>257713</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>231440</v>
+        <v>231045</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>284791</v>
+        <v>285252</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3128603743246074</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2809659008136469</v>
+        <v>0.2804856227701719</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3457325898933498</v>
+        <v>0.3462923612996328</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>598</v>
@@ -2073,19 +2073,19 @@
         <v>622030</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>584437</v>
+        <v>583586</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>661579</v>
+        <v>667153</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3158357713540935</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2967480654881026</v>
+        <v>0.2963158115929567</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3359165487259883</v>
+        <v>0.3387471609772173</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>184253</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>157448</v>
+        <v>161363</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>207120</v>
+        <v>213114</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.160815635966929</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1374200264152687</v>
+        <v>0.140837150042187</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1807734631929271</v>
+        <v>0.1860053121985084</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>117</v>
@@ -2123,19 +2123,19 @@
         <v>120185</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>101398</v>
+        <v>98686</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>140633</v>
+        <v>140177</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1459033266388707</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1230956937824281</v>
+        <v>0.119803603278779</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1707272415962089</v>
+        <v>0.1701732943718419</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>289</v>
@@ -2144,19 +2144,19 @@
         <v>304438</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>270292</v>
+        <v>274097</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>338087</v>
+        <v>337461</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.154578572599623</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1372409425502457</v>
+        <v>0.1391726922875487</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1716638462170702</v>
+        <v>0.1713457012853916</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>219873</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>198089</v>
+        <v>192448</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>250328</v>
+        <v>245233</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.19190442370503</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1728916492053683</v>
+        <v>0.1679679696390568</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2184856872984162</v>
+        <v>0.2140383997368599</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>157</v>
@@ -2194,19 +2194,19 @@
         <v>161472</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>139365</v>
+        <v>139193</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>183312</v>
+        <v>184670</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1960256445950547</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1691880400450354</v>
+        <v>0.1689782863618428</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2225383146894804</v>
+        <v>0.2241870381435674</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>369</v>
@@ -2215,19 +2215,19 @@
         <v>381345</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>349564</v>
+        <v>345295</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>421043</v>
+        <v>415648</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1936281215761159</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1774910314370784</v>
+        <v>0.1753235637033316</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2137847127338576</v>
+        <v>0.2110454957667233</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>205062</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>180121</v>
+        <v>178483</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>231816</v>
+        <v>233031</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1789772485177686</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1572086910456142</v>
+        <v>0.1557794689686535</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2023283294522733</v>
+        <v>0.2033891026435613</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>147</v>
@@ -2265,19 +2265,19 @@
         <v>148836</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>128390</v>
+        <v>129394</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>171099</v>
+        <v>172571</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1806849374307541</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1558641401717324</v>
+        <v>0.1570827234340959</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2077128229414134</v>
+        <v>0.2094990944248792</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>345</v>
@@ -2286,19 +2286,19 @@
         <v>353898</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>318872</v>
+        <v>322102</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>385709</v>
+        <v>388543</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1796914882594225</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1619074740835051</v>
+        <v>0.1635472609341099</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1958435475127944</v>
+        <v>0.1972825308897978</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>172237</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>149532</v>
+        <v>147765</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>198298</v>
+        <v>197059</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1503277603793631</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1305114462487191</v>
+        <v>0.1289691898689561</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.173074245330137</v>
+        <v>0.1719924057190737</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>132</v>
@@ -2336,19 +2336,19 @@
         <v>135525</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>115768</v>
+        <v>115997</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>157576</v>
+        <v>157271</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1645257170107131</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1405409222429315</v>
+        <v>0.1408186527564342</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.191295886827159</v>
+        <v>0.1909246426592421</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>294</v>
@@ -2357,19 +2357,19 @@
         <v>307762</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>276392</v>
+        <v>275230</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>338931</v>
+        <v>340190</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1562660462107451</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1403381923524592</v>
+        <v>0.1397478477853776</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.172092384135239</v>
+        <v>0.1727312575525858</v>
       </c>
     </row>
     <row r="27">
@@ -2461,19 +2461,19 @@
         <v>209483</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>187182</v>
+        <v>184627</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>232617</v>
+        <v>233432</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3399636412898703</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3037726911863964</v>
+        <v>0.2996258743550616</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3775075951681411</v>
+        <v>0.3788302542560125</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>263</v>
@@ -2482,19 +2482,19 @@
         <v>286589</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>260137</v>
+        <v>258259</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>315011</v>
+        <v>312114</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3899928342613932</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3539973275810639</v>
+        <v>0.3514420328153782</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4286700670582176</v>
+        <v>0.4247280549581527</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>472</v>
@@ -2503,19 +2503,19 @@
         <v>496071</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>461171</v>
+        <v>458543</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>534264</v>
+        <v>530655</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.367175306761536</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3413432605098824</v>
+        <v>0.3393980915521675</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3954444047627072</v>
+        <v>0.3927735066833491</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>92614</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>74994</v>
+        <v>75779</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>112106</v>
+        <v>112146</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1503005496527374</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.12170629441838</v>
+        <v>0.1229790770201781</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1819338225613225</v>
+        <v>0.1819986696965464</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>117</v>
@@ -2553,19 +2553,19 @@
         <v>122623</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>103057</v>
+        <v>103777</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>141522</v>
+        <v>144645</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1668669020904655</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.140241420799013</v>
+        <v>0.1412211488136146</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1925842451877651</v>
+        <v>0.1968349336544956</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>207</v>
@@ -2574,19 +2574,19 @@
         <v>215237</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>189146</v>
+        <v>187906</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>243193</v>
+        <v>243628</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1593112494830898</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1399995064392972</v>
+        <v>0.1390814848257863</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1800033357666548</v>
+        <v>0.1803251453437257</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>110348</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>91636</v>
+        <v>90710</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>132072</v>
+        <v>130642</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1790812246164727</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1487142727594466</v>
+        <v>0.1472112121208642</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2143356147207426</v>
+        <v>0.2120154649280095</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>115</v>
@@ -2624,19 +2624,19 @@
         <v>120127</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>100161</v>
+        <v>100663</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>141853</v>
+        <v>142016</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1634697246373376</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1362996411573994</v>
+        <v>0.1369837200713377</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1930356887268705</v>
+        <v>0.1932568500410313</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>218</v>
@@ -2645,19 +2645,19 @@
         <v>230475</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>203872</v>
+        <v>204550</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>259440</v>
+        <v>261921</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.170589884066867</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1508993274585247</v>
+        <v>0.1514011646044334</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1920287316751866</v>
+        <v>0.1938651305144264</v>
       </c>
     </row>
     <row r="31">
@@ -2674,19 +2674,19 @@
         <v>105754</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>87878</v>
+        <v>85760</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>127610</v>
+        <v>125046</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.171624765828661</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1426152842386333</v>
+        <v>0.1391772933091975</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2070946938010408</v>
+        <v>0.2029332828263165</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>107</v>
@@ -2695,19 +2695,19 @@
         <v>109729</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>91114</v>
+        <v>90859</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>130421</v>
+        <v>131309</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1493198322552038</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1239887922256555</v>
+        <v>0.1236421957753263</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1774785947201666</v>
+        <v>0.1786867154675404</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>207</v>
@@ -2716,19 +2716,19 @@
         <v>215482</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>191206</v>
+        <v>188276</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>245477</v>
+        <v>242563</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1594927613984851</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1415242519311256</v>
+        <v>0.1393557793045246</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1816940310266472</v>
+        <v>0.1795368954091381</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>97993</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>81325</v>
+        <v>80411</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>117882</v>
+        <v>119561</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1590298186122586</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1319809191494486</v>
+        <v>0.1304963075183374</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1913074706968678</v>
+        <v>0.1940317488455638</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>94</v>
@@ -2766,19 +2766,19 @@
         <v>95789</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>78592</v>
+        <v>77707</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>115236</v>
+        <v>114828</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1303507067555999</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1069485155859689</v>
+        <v>0.1057451690011006</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1568139620832218</v>
+        <v>0.156259261805773</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>185</v>
@@ -2787,19 +2787,19 @@
         <v>193782</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>170620</v>
+        <v>169602</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>220186</v>
+        <v>220085</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1434307982900221</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1262871929191663</v>
+        <v>0.1255338897317347</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1629747119800142</v>
+        <v>0.1628995860103943</v>
       </c>
     </row>
     <row r="33">
@@ -2891,19 +2891,19 @@
         <v>25419</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>17925</v>
+        <v>17085</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>36377</v>
+        <v>36859</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.08919213304796691</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.06289511994764042</v>
+        <v>0.05994853887718795</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1276433257959256</v>
+        <v>0.1293338641009095</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>398</v>
@@ -2912,19 +2912,19 @@
         <v>455536</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>420300</v>
+        <v>424680</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>485961</v>
+        <v>487363</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.4266756588641961</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.3936724872411262</v>
+        <v>0.3977742077682745</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.4551731634850824</v>
+        <v>0.4564861214018338</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>422</v>
@@ -2933,19 +2933,19 @@
         <v>480955</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>445481</v>
+        <v>442160</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>517947</v>
+        <v>520618</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3555697787093679</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.3293442856412035</v>
+        <v>0.3268885302498437</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3829179647888099</v>
+        <v>0.3848924879942059</v>
       </c>
     </row>
     <row r="35">
@@ -2962,19 +2962,19 @@
         <v>32265</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>22756</v>
+        <v>22657</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>44830</v>
+        <v>43995</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1132150806673336</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.07984756918968437</v>
+        <v>0.07950218376720326</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1573033178134509</v>
+        <v>0.154374473198766</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>149</v>
@@ -2983,19 +2983,19 @@
         <v>161673</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>140014</v>
+        <v>139333</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>187953</v>
+        <v>188683</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1514298708179332</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1311436563834427</v>
+        <v>0.1305051756257173</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1760457205070261</v>
+        <v>0.1767292415927414</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>180</v>
@@ -3004,19 +3004,19 @@
         <v>193938</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>169200</v>
+        <v>171276</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>222957</v>
+        <v>223711</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1433782295355374</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1250897866221087</v>
+        <v>0.1266246976341337</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1648319812681483</v>
+        <v>0.1653894353032831</v>
       </c>
     </row>
     <row r="36">
@@ -3033,19 +3033,19 @@
         <v>54534</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>41883</v>
+        <v>42326</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>69479</v>
+        <v>69471</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1913543843377845</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.146960640182831</v>
+        <v>0.1485152656199066</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.243792164513209</v>
+        <v>0.2437659982497066</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>172</v>
@@ -3054,19 +3054,19 @@
         <v>181442</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>159537</v>
+        <v>157684</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>209983</v>
+        <v>206390</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1699469591673573</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.149429687140637</v>
+        <v>0.1476937142499479</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1966791424336322</v>
+        <v>0.193314688986638</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>223</v>
@@ -3075,19 +3075,19 @@
         <v>235976</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>206048</v>
+        <v>210583</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>266018</v>
+        <v>268753</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1744573832092726</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1523316127028777</v>
+        <v>0.1556840550943142</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1966667566541623</v>
+        <v>0.1986887476360386</v>
       </c>
     </row>
     <row r="37">
@@ -3104,19 +3104,19 @@
         <v>77174</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>63622</v>
+        <v>63325</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>95281</v>
+        <v>93229</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2707930754529633</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2232421633757815</v>
+        <v>0.2221999848729425</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3343298227912884</v>
+        <v>0.3271274331211675</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>139</v>
@@ -3125,19 +3125,19 @@
         <v>143654</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>123791</v>
+        <v>123695</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>168277</v>
+        <v>170501</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1345528210804496</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1159486910082743</v>
+        <v>0.1158587397562871</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1576163147397821</v>
+        <v>0.1596987501133051</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>213</v>
@@ -3146,19 +3146,19 @@
         <v>220828</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>193807</v>
+        <v>196482</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>251014</v>
+        <v>249734</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1632578761679397</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.143281462792984</v>
+        <v>0.1452588070788838</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1855745565241324</v>
+        <v>0.184628124811616</v>
       </c>
     </row>
     <row r="38">
@@ -3175,19 +3175,19 @@
         <v>95599</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>78432</v>
+        <v>79634</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>111947</v>
+        <v>113127</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.3354453264939516</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2752090560448843</v>
+        <v>0.2794262676684919</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3928087668347701</v>
+        <v>0.3969487603283913</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>123</v>
@@ -3196,19 +3196,19 @@
         <v>125335</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>105230</v>
+        <v>105918</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>146933</v>
+        <v>148307</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1173946900700638</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.0985628626707399</v>
+        <v>0.09920723889836983</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.1376239546667646</v>
+        <v>0.1389111652083369</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>213</v>
@@ -3217,19 +3217,19 @@
         <v>220934</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>195458</v>
+        <v>193169</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>250327</v>
+        <v>249899</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1633367323778824</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1445018957315511</v>
+        <v>0.1428095552774148</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1850667050588996</v>
+        <v>0.1847502675142177</v>
       </c>
     </row>
     <row r="39">
@@ -3321,19 +3321,19 @@
         <v>1066246</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1017975</v>
+        <v>1012863</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>1124309</v>
+        <v>1124591</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.3171012913030295</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.3027456636306325</v>
+        <v>0.3012252246319248</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.3343692217429339</v>
+        <v>0.3344532660852772</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1171</v>
@@ -3342,19 +3342,19 @@
         <v>1295265</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1237682</v>
+        <v>1235189</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>1355458</v>
+        <v>1354363</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.3690928284021693</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.352684071400763</v>
+        <v>0.3519736646191195</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.3862451444585023</v>
+        <v>0.3859330961516739</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>2191</v>
@@ -3363,19 +3363,19 @@
         <v>2361511</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>2280712</v>
+        <v>2284570</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>2443099</v>
+        <v>2446446</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.3436525641542884</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.3318943948501381</v>
+        <v>0.3324558689073828</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.3555253293459769</v>
+        <v>0.3560124101788267</v>
       </c>
     </row>
     <row r="41">
@@ -3392,19 +3392,19 @@
         <v>531896</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>488663</v>
+        <v>489673</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>578102</v>
+        <v>576303</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1581858502437277</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1453284069460868</v>
+        <v>0.1456285983187914</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.17192735947866</v>
+        <v>0.1713922871399634</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>552</v>
@@ -3413,19 +3413,19 @@
         <v>586061</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>541920</v>
+        <v>543551</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>632706</v>
+        <v>629290</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1670013916649711</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1544229550076552</v>
+        <v>0.1548878296264557</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1802929000733889</v>
+        <v>0.1793194852862121</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1052</v>
@@ -3434,19 +3434,19 @@
         <v>1117958</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1058888</v>
+        <v>1054695</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1182176</v>
+        <v>1184169</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1626878107293483</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1540918747383489</v>
+        <v>0.15348161643919</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1720329703442512</v>
+        <v>0.1723230122683859</v>
       </c>
     </row>
     <row r="42">
@@ -3463,19 +3463,19 @@
         <v>614509</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>571724</v>
+        <v>573831</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>659623</v>
+        <v>664151</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1827549017030196</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1700305619046935</v>
+        <v>0.1706572318718788</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1961718440287231</v>
+        <v>0.1975184327797243</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>579</v>
@@ -3484,19 +3484,19 @@
         <v>602259</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>555851</v>
+        <v>560711</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>649706</v>
+        <v>651961</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1716169237483875</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1583926132456777</v>
+        <v>0.1597777371539556</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1851371616126877</v>
+        <v>0.1857797357953963</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1167</v>
@@ -3505,19 +3505,19 @@
         <v>1216768</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1156563</v>
+        <v>1154956</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1284030</v>
+        <v>1283873</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1770669088452428</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1683056789441197</v>
+        <v>0.1680718133977033</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1868550197199792</v>
+        <v>0.1868321869379063</v>
       </c>
     </row>
     <row r="43">
@@ -3534,19 +3534,19 @@
         <v>624998</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>578235</v>
+        <v>579897</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>667734</v>
+        <v>667478</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1858742003907178</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1719669017491436</v>
+        <v>0.172461388837107</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1985838825651659</v>
+        <v>0.1985078091151962</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>546</v>
@@ -3555,19 +3555,19 @@
         <v>558346</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>514953</v>
+        <v>515342</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>602548</v>
+        <v>601978</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.159103599396103</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1467387317499378</v>
+        <v>0.146849612791545</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.171699181632978</v>
+        <v>0.1715369508705518</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>1144</v>
@@ -3576,19 +3576,19 @@
         <v>1183344</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>1123481</v>
+        <v>1124687</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>1245463</v>
+        <v>1247383</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1722028690345236</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1634915491993734</v>
+        <v>0.1636670357393781</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1812427093157193</v>
+        <v>0.1815221109669242</v>
       </c>
     </row>
     <row r="44">
@@ -3605,19 +3605,19 @@
         <v>524828</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>481932</v>
+        <v>482832</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>566932</v>
+        <v>569663</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1560837563595054</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1433264372159558</v>
+        <v>0.1435941846906602</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1686054138467257</v>
+        <v>0.16941768008897</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>460</v>
@@ -3626,19 +3626,19 @@
         <v>467390</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>430754</v>
+        <v>432061</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>509758</v>
+        <v>510019</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.1331852567883691</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1227457247368069</v>
+        <v>0.123118231472031</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.1452583730780835</v>
+        <v>0.1453325316175147</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>956</v>
@@ -3647,19 +3647,19 @@
         <v>992218</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>927967</v>
+        <v>929535</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1050351</v>
+        <v>1047503</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1443898472365968</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1350399348716724</v>
+        <v>0.1352680625633267</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1528495635773127</v>
+        <v>0.1524350917975774</v>
       </c>
     </row>
     <row r="45">
